--- a/Data/Excels/Syncolon/105_115/FarPoints_67.xlsx
+++ b/Data/Excels/Syncolon/105_115/FarPoints_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,14 +460,14 @@
       <c r="A6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>128,00</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>152,00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -482,11 +482,7 @@
       <c r="A12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>602,00</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -510,14 +506,14 @@
       <c r="A20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>706,00</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1190,00</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -541,11 +537,7 @@
       <c r="A29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>758,00</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -565,7 +557,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1094,00</t>
+          <t>860,00</t>
         </is>
       </c>
     </row>
@@ -585,11 +577,7 @@
       <c r="A41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>688,00</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -607,9 +595,153 @@
       <c r="A47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>362,00</t>
+      <c r="A48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1174,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1212,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>924,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>528,00</t>
         </is>
       </c>
     </row>
